--- a/CanterburyRecovery/canterbury_biz_population.xlsx
+++ b/CanterburyRecovery/canterbury_biz_population.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="matrix" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Retail" sheetId="4" r:id="rId1"/>
+    <sheet name="matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -297,21 +298,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -337,28 +338,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total All Industries</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0581697106260891"/>
+          <c:y val="0.0283277029664475"/>
+          <c:w val="0.91517127599764"/>
+          <c:h val="0.916440654148602"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -367,7 +359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$C$5</c:f>
+              <c:f>matrix!$BG$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -376,39 +368,61 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -416,27 +430,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$C$13:$C$18</c:f>
+              <c:f>matrix!$BG$6:$BG$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>36060.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4040.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36280.0</c:v>
+                  <c:v>4060.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35980.0</c:v>
+                  <c:v>3940.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36110.0</c:v>
+                  <c:v>3950.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35710.0</c:v>
+                  <c:v>4060.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34620.0</c:v>
+                  <c:v>4140.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4370.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4510.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4510.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4310.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4370.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4390.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,7 +483,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$D$5</c:f>
+              <c:f>matrix!$BH$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -457,39 +492,56 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -497,27 +549,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$D$13:$D$18</c:f>
+              <c:f>matrix!$BH$6:$BH$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>25690.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3610.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26590.0</c:v>
+                  <c:v>3650.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26070.0</c:v>
+                  <c:v>3980.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26130.0</c:v>
+                  <c:v>3960.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25690.0</c:v>
+                  <c:v>4020.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26060.0</c:v>
+                  <c:v>4350.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4310.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4170.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4320.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4230.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4310.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3960.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3740.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,7 +602,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$E$5</c:f>
+              <c:f>matrix!$BI$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,27 +614,53 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -569,27 +668,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$E$13:$E$18</c:f>
+              <c:f>matrix!$BI$6:$BI$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>39850.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4190.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40030.0</c:v>
+                  <c:v>4260.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39970.0</c:v>
+                  <c:v>4190.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39270.0</c:v>
+                  <c:v>4240.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39370.0</c:v>
+                  <c:v>4750.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40400.0</c:v>
+                  <c:v>4990.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5150.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5030.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4950.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4770.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4660.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5050.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4710.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +721,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$F$5</c:f>
+              <c:f>matrix!$BJ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -610,39 +730,56 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -650,27 +787,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$F$13:$F$18</c:f>
+              <c:f>matrix!$BJ$6:$BJ$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>48310.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50230.0</c:v>
+                  <c:v>3520.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48380.0</c:v>
+                  <c:v>3200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47470.0</c:v>
+                  <c:v>3440.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46200.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46320.0</c:v>
+                  <c:v>3690.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4020.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4230.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4060.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3690.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3490.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +840,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$G$5</c:f>
+              <c:f>matrix!$BK$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -691,39 +849,56 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -731,27 +906,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$G$13:$G$18</c:f>
+              <c:f>matrix!$BK$6:$BK$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>33150.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2700.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32770.0</c:v>
+                  <c:v>3020.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32700.0</c:v>
+                  <c:v>2880.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32100.0</c:v>
+                  <c:v>3060.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31350.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29770.0</c:v>
+                  <c:v>2790.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2830.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3040.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2690.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2740.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3230.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2640.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2940.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +959,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$H$5</c:f>
+              <c:f>matrix!$BL$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -772,40 +968,56 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:f>matrix!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
               </c:strCache>
@@ -813,27 +1025,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$H$13:$H$18</c:f>
+              <c:f>matrix!$BL$6:$BL$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>73300.0</c:v>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5290.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78020.0</c:v>
+                  <c:v>5490.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75550.0</c:v>
+                  <c:v>5810.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73290.0</c:v>
+                  <c:v>6170.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76300.0</c:v>
+                  <c:v>6410.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79390.0</c:v>
+                  <c:v>7060.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7270.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7770.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7230.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6740.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7390.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8130.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,20 +1083,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101600920"/>
-        <c:axId val="2100833784"/>
+        <c:axId val="2099735816"/>
+        <c:axId val="2099736584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101600920"/>
+        <c:axId val="2099735816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100833784"/>
+        <c:crossAx val="2099736584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,45 +1104,48 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100833784"/>
+        <c:axId val="2099736584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8000.0"/>
+          <c:min val="2000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101600920"/>
+        <c:crossAx val="2099735816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0684155881292055"/>
+          <c:y val="0.0527518107167252"/>
+          <c:w val="0.128851897985309"/>
+          <c:h val="0.310509715063801"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1345,11 +1581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101160760"/>
-        <c:axId val="2101163896"/>
+        <c:axId val="2084601064"/>
+        <c:axId val="2084597912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101160760"/>
+        <c:axId val="2084601064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101163896"/>
+        <c:crossAx val="2084597912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,7 +1602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101163896"/>
+        <c:axId val="2084597912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101160760"/>
+        <c:crossAx val="2084601064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101203960"/>
-        <c:axId val="2101207096"/>
+        <c:axId val="2086125272"/>
+        <c:axId val="2086128408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101203960"/>
+        <c:axId val="2086125272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,7 +2080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101207096"/>
+        <c:crossAx val="2086128408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1852,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101207096"/>
+        <c:axId val="2086128408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101203960"/>
+        <c:crossAx val="2086125272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2317,11 +2553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101247752"/>
-        <c:axId val="2101250888"/>
+        <c:axId val="2082849768"/>
+        <c:axId val="2082846648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101247752"/>
+        <c:axId val="2082849768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101250888"/>
+        <c:crossAx val="2082846648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2338,7 +2574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101250888"/>
+        <c:axId val="2082846648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101247752"/>
+        <c:crossAx val="2082849768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2803,11 +3039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101290488"/>
-        <c:axId val="2101293624"/>
+        <c:axId val="2082802456"/>
+        <c:axId val="2082799304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101290488"/>
+        <c:axId val="2082802456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +3052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101293624"/>
+        <c:crossAx val="2082799304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +3060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101293624"/>
+        <c:axId val="2082799304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +3071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101290488"/>
+        <c:crossAx val="2082802456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3289,11 +3525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100370712"/>
-        <c:axId val="2100367560"/>
+        <c:axId val="2082758696"/>
+        <c:axId val="2082755544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100370712"/>
+        <c:axId val="2082758696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100367560"/>
+        <c:crossAx val="2082755544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3310,7 +3546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100367560"/>
+        <c:axId val="2082755544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100370712"/>
+        <c:crossAx val="2082758696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3775,11 +4011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100327432"/>
-        <c:axId val="2100324280"/>
+        <c:axId val="2082715080"/>
+        <c:axId val="2082711928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100327432"/>
+        <c:axId val="2082715080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +4024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100324280"/>
+        <c:crossAx val="2082711928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3796,7 +4032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100324280"/>
+        <c:axId val="2082711928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,7 +4043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100327432"/>
+        <c:crossAx val="2082715080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4261,11 +4497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102484472"/>
-        <c:axId val="2102487608"/>
+        <c:axId val="2082672552"/>
+        <c:axId val="2082669400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102484472"/>
+        <c:axId val="2082672552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102487608"/>
+        <c:crossAx val="2082669400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4282,7 +4518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102487608"/>
+        <c:axId val="2082669400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,7 +4529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102484472"/>
+        <c:crossAx val="2082672552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4747,11 +4983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102526984"/>
-        <c:axId val="2102530120"/>
+        <c:axId val="2082628776"/>
+        <c:axId val="2082625624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102526984"/>
+        <c:axId val="2082628776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +4996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102530120"/>
+        <c:crossAx val="2082625624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4768,7 +5004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102530120"/>
+        <c:axId val="2082625624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +5015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102526984"/>
+        <c:crossAx val="2082628776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5233,11 +5469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102570376"/>
-        <c:axId val="2102573512"/>
+        <c:axId val="2082585672"/>
+        <c:axId val="2082582520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102570376"/>
+        <c:axId val="2082585672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5246,7 +5482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102573512"/>
+        <c:crossAx val="2082582520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5254,7 +5490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102573512"/>
+        <c:axId val="2082582520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,7 +5501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102570376"/>
+        <c:crossAx val="2082585672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5719,11 +5955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102614104"/>
-        <c:axId val="2102617240"/>
+        <c:axId val="2082541800"/>
+        <c:axId val="2082538648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102614104"/>
+        <c:axId val="2082541800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5732,7 +5968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102617240"/>
+        <c:crossAx val="2082538648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5740,7 +5976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102617240"/>
+        <c:axId val="2082538648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,7 +5987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102614104"/>
+        <c:crossAx val="2082541800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5787,6 +6023,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total All Industries</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5796,53 +6051,78 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 to 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AA$6:$AA$18</c:f>
+              <c:f>matrix!$C$13:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2510.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36060.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2510.0</c:v>
+                  <c:v>36280.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2520.0</c:v>
+                  <c:v>35980.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2530.0</c:v>
+                  <c:v>36110.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2470.0</c:v>
+                  <c:v>35710.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2530.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2520.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2370.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2390.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2420.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2360.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2260.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2190.0</c:v>
+                  <c:v>34620.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5852,53 +6132,78 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 to 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AB$6:$AB$18</c:f>
+              <c:f>matrix!$D$13:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2370.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25690.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2410.0</c:v>
+                  <c:v>26590.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2420.0</c:v>
+                  <c:v>26070.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2440.0</c:v>
+                  <c:v>26130.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2570.0</c:v>
+                  <c:v>25690.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2540.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2360.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2380.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2360.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2450.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2550.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2420.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2420.0</c:v>
+                  <c:v>26060.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5908,53 +6213,69 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 to 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AC$6:$AC$18</c:f>
+              <c:f>matrix!$E$13:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4680.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39850.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4860.0</c:v>
+                  <c:v>40030.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4860.0</c:v>
+                  <c:v>39970.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5220.0</c:v>
+                  <c:v>39270.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5140.0</c:v>
+                  <c:v>39370.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5370.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5400.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5420.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5020.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4890.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4670.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4720.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4950.0</c:v>
+                  <c:v>40400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,53 +6285,78 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 to 49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AD$6:$AD$18</c:f>
+              <c:f>matrix!$F$13:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>7250.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>48310.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7060.0</c:v>
+                  <c:v>50230.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6930.0</c:v>
+                  <c:v>48380.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7260.0</c:v>
+                  <c:v>47470.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7430.0</c:v>
+                  <c:v>46200.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6760.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6830.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7470.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6450.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5970.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5790.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5280.0</c:v>
+                  <c:v>46320.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6020,53 +6366,78 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 to 99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AE$6:$AE$18</c:f>
+              <c:f>matrix!$G$13:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4180.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4550.0</c:v>
+                  <c:v>32770.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5280.0</c:v>
+                  <c:v>32700.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000.0</c:v>
+                  <c:v>32100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5400.0</c:v>
+                  <c:v>31350.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5270.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5930.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5640.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4740.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5030.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4790.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4860.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4770.0</c:v>
+                  <c:v>29770.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,53 +6447,79 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>matrix!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 and Over</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>matrix!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AF$6:$AF$18</c:f>
+              <c:f>matrix!$H$13:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>16200.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73300.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16350.0</c:v>
+                  <c:v>78020.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16400.0</c:v>
+                  <c:v>75550.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16640.0</c:v>
+                  <c:v>73290.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17090.0</c:v>
+                  <c:v>76300.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17460.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15810.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15690.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16390.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16030.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14250.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14040.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14040.0</c:v>
+                  <c:v>79390.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6139,11 +6536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101644360"/>
-        <c:axId val="2101647496"/>
+        <c:axId val="2076159208"/>
+        <c:axId val="2076162344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101644360"/>
+        <c:axId val="2076159208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101647496"/>
+        <c:crossAx val="2076162344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6160,7 +6557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101647496"/>
+        <c:axId val="2076162344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6171,10 +6568,19 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101644360"/>
+        <c:crossAx val="2076159208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -6625,11 +7031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102657336"/>
-        <c:axId val="2102660472"/>
+        <c:axId val="2082498552"/>
+        <c:axId val="2082495400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102657336"/>
+        <c:axId val="2082498552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6638,7 +7044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102660472"/>
+        <c:crossAx val="2082495400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6646,7 +7052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102660472"/>
+        <c:axId val="2082495400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6657,7 +7063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102657336"/>
+        <c:crossAx val="2082498552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6702,64 +7108,53 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 to 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$K$6:$K$18</c:f>
+              <c:f>matrix!$AA$6:$AA$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5310.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5520.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5420.0</c:v>
+                  <c:v>2520.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5420.0</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5650.0</c:v>
+                  <c:v>2470.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5510.0</c:v>
+                  <c:v>2530.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5510.0</c:v>
+                  <c:v>2520.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5370.0</c:v>
+                  <c:v>2370.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5320.0</c:v>
+                  <c:v>2390.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5250.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5530.0</c:v>
+                  <c:v>2360.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5400.0</c:v>
+                  <c:v>2260.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5510.0</c:v>
+                  <c:v>2190.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6769,64 +7164,53 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6 to 9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$L$6:$L$18</c:f>
+              <c:f>matrix!$AB$6:$AB$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1980.0</c:v>
+                  <c:v>2370.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2170.0</c:v>
+                  <c:v>2410.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2470.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2650.0</c:v>
+                  <c:v>2440.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2510.0</c:v>
+                  <c:v>2570.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2690.0</c:v>
+                  <c:v>2540.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2850.0</c:v>
+                  <c:v>2360.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2870.0</c:v>
+                  <c:v>2380.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2870.0</c:v>
+                  <c:v>2360.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2770.0</c:v>
+                  <c:v>2450.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2810.0</c:v>
+                  <c:v>2550.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2930.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2970.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6836,64 +7220,53 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 to 19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$M$6:$M$18</c:f>
+              <c:f>matrix!$AC$6:$AC$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1990.0</c:v>
+                  <c:v>4680.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1850.0</c:v>
+                  <c:v>4860.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2180.0</c:v>
+                  <c:v>4860.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2360.0</c:v>
+                  <c:v>5220.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2120.0</c:v>
+                  <c:v>5140.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2290.0</c:v>
+                  <c:v>5370.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2280.0</c:v>
+                  <c:v>5400.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2250.0</c:v>
+                  <c:v>5420.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2280.0</c:v>
+                  <c:v>5020.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2790.0</c:v>
+                  <c:v>4890.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500.0</c:v>
+                  <c:v>4670.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2560.0</c:v>
+                  <c:v>4720.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2910.0</c:v>
+                  <c:v>4950.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6903,64 +7276,53 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 to 49</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$N$6:$N$18</c:f>
+              <c:f>matrix!$AD$6:$AD$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1860.0</c:v>
+                  <c:v>7250.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600.0</c:v>
+                  <c:v>7060.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800.0</c:v>
+                  <c:v>6930.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1750.0</c:v>
+                  <c:v>7260.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1870.0</c:v>
+                  <c:v>7430.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1790.0</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1870.0</c:v>
+                  <c:v>6760.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1860.0</c:v>
+                  <c:v>6830.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020.0</c:v>
+                  <c:v>7470.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1830.0</c:v>
+                  <c:v>6450.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1680.0</c:v>
+                  <c:v>5970.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1850.0</c:v>
+                  <c:v>5790.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1640.0</c:v>
+                  <c:v>5280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6970,64 +7332,53 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50 to 99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$O$6:$O$18</c:f>
+              <c:f>matrix!$AE$6:$AE$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>450.0</c:v>
+                  <c:v>4180.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320.0</c:v>
+                  <c:v>4550.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>5280.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>450.0</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>5400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>790.0</c:v>
+                  <c:v>5270.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>830.0</c:v>
+                  <c:v>5930.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>810.0</c:v>
+                  <c:v>5640.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520.0</c:v>
+                  <c:v>4740.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>420.0</c:v>
+                  <c:v>5030.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>590.0</c:v>
+                  <c:v>4790.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470.0</c:v>
+                  <c:v>4860.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>680.0</c:v>
+                  <c:v>4770.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7037,64 +7388,53 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>matrix!$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100 and Over</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$P$6:$P$18</c:f>
+              <c:f>matrix!$AF$6:$AF$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>16200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>340.0</c:v>
+                  <c:v>16350.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360.0</c:v>
+                  <c:v>16400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>390.0</c:v>
+                  <c:v>16640.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600.0</c:v>
+                  <c:v>17090.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>17460.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350.0</c:v>
+                  <c:v>15810.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350.0</c:v>
+                  <c:v>15690.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>630.0</c:v>
+                  <c:v>16390.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>16030.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600.0</c:v>
+                  <c:v>14250.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>660.0</c:v>
+                  <c:v>14040.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>640.0</c:v>
+                  <c:v>14040.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7111,11 +7451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101688104"/>
-        <c:axId val="2101691208"/>
+        <c:axId val="2076063560"/>
+        <c:axId val="2076066696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101688104"/>
+        <c:axId val="2076063560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101691208"/>
+        <c:crossAx val="2076066696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,7 +7472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101691208"/>
+        <c:axId val="2076066696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,7 +7483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101688104"/>
+        <c:crossAx val="2076063560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7190,7 +7530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$S$5</c:f>
+              <c:f>matrix!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7204,48 +7544,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$S$6:$S$18</c:f>
+              <c:f>matrix!$K$6:$K$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>5310.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>5520.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.0</c:v>
+                  <c:v>5420.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.0</c:v>
+                  <c:v>5420.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>5650.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>5510.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.0</c:v>
+                  <c:v>5510.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>5370.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>5320.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.0</c:v>
+                  <c:v>5250.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>5530.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.0</c:v>
+                  <c:v>5400.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.0</c:v>
+                  <c:v>5510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7257,7 +7597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$T$5</c:f>
+              <c:f>matrix!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7271,48 +7611,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$T$6:$T$18</c:f>
+              <c:f>matrix!$L$6:$L$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>45.0</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>2170.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.0</c:v>
+                  <c:v>2470.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.0</c:v>
+                  <c:v>2650.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>2690.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>2850.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.0</c:v>
+                  <c:v>2870.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.0</c:v>
+                  <c:v>2870.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>2770.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.0</c:v>
+                  <c:v>2810.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.0</c:v>
+                  <c:v>2930.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.0</c:v>
+                  <c:v>2970.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7324,7 +7664,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$U$5</c:f>
+              <c:f>matrix!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7338,48 +7678,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$U$6:$U$18</c:f>
+              <c:f>matrix!$M$6:$M$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>35.0</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>1850.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2180.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>2360.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.0</c:v>
+                  <c:v>2120.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>2290.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.0</c:v>
+                  <c:v>2280.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.0</c:v>
+                  <c:v>2250.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.0</c:v>
+                  <c:v>2280.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.0</c:v>
+                  <c:v>2790.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.0</c:v>
+                  <c:v>2560.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.0</c:v>
+                  <c:v>2910.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7391,7 +7731,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$V$5</c:f>
+              <c:f>matrix!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7405,48 +7745,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$V$6:$V$18</c:f>
+              <c:f>matrix!$N$6:$N$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>1860.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.0</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.0</c:v>
+                  <c:v>1750.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.0</c:v>
+                  <c:v>1870.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.0</c:v>
+                  <c:v>1790.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.0</c:v>
+                  <c:v>1870.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>1860.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.0</c:v>
+                  <c:v>2020.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.0</c:v>
+                  <c:v>1830.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.0</c:v>
+                  <c:v>1680.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.0</c:v>
+                  <c:v>1850.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.0</c:v>
+                  <c:v>1640.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7458,7 +7798,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$W$5</c:f>
+              <c:f>matrix!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7472,48 +7812,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$W$6:$W$18</c:f>
+              <c:f>matrix!$O$6:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>320.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140.0</c:v>
+                  <c:v>790.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.0</c:v>
+                  <c:v>830.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.0</c:v>
+                  <c:v>810.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.0</c:v>
+                  <c:v>520.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.0</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.0</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>470.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>680.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7525,7 +7865,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$X$5</c:f>
+              <c:f>matrix!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7539,7 +7879,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$X$6:$X$18</c:f>
+              <c:f>matrix!$P$6:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7547,40 +7887,40 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>390.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>230.0</c:v>
+                  <c:v>630.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.0</c:v>
+                  <c:v>660.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>380.0</c:v>
+                  <c:v>640.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,11 +7937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100893080"/>
-        <c:axId val="2100896184"/>
+        <c:axId val="2075515512"/>
+        <c:axId val="2075518648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100893080"/>
+        <c:axId val="2075515512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7610,7 +7950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100896184"/>
+        <c:crossAx val="2075518648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7618,18 +7958,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100896184"/>
+        <c:axId val="2075518648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100893080"/>
+        <c:crossAx val="2075515512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7676,7 +8016,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AI$5</c:f>
+              <c:f>matrix!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7690,48 +8030,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AI$6:$AI$18</c:f>
+              <c:f>matrix!$S$6:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>130.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7743,7 +8083,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AJ$5</c:f>
+              <c:f>matrix!$T$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7757,48 +8097,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AJ$6:$AJ$18</c:f>
+              <c:f>matrix!$T$6:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>90.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>70.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>150.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7810,7 +8150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AK$5</c:f>
+              <c:f>matrix!$U$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7824,48 +8164,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AK$6:$AK$18</c:f>
+              <c:f>matrix!$U$6:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>120.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>160.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>200.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7877,7 +8217,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AL$5</c:f>
+              <c:f>matrix!$V$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7891,48 +8231,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AL$6:$AL$18</c:f>
+              <c:f>matrix!$V$6:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>260.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>380.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>330.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7944,7 +8284,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AM$5</c:f>
+              <c:f>matrix!$W$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7958,48 +8298,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AM$6:$AM$18</c:f>
+              <c:f>matrix!$W$6:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>65.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>360.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>410.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>390.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>270.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8011,7 +8351,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AN$5</c:f>
+              <c:f>matrix!$X$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8025,48 +8365,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AN$6:$AN$18</c:f>
+              <c:f>matrix!$X$6:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>330.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>280.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>330.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>390.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>530.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>690.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>830.0</c:v>
+                  <c:v>380.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8083,11 +8423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100944568"/>
-        <c:axId val="2100947704"/>
+        <c:axId val="2076098744"/>
+        <c:axId val="2076101880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100944568"/>
+        <c:axId val="2076098744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8096,7 +8436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100947704"/>
+        <c:crossAx val="2076101880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8104,7 +8444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100947704"/>
+        <c:axId val="2076101880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8115,7 +8455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100944568"/>
+        <c:crossAx val="2076098744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8162,7 +8502,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AQ$5</c:f>
+              <c:f>matrix!$AI$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8176,48 +8516,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AQ$6:$AQ$18</c:f>
+              <c:f>matrix!$AI$6:$AI$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2650.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2600.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2790.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3080.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3480.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3860.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4160.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4530.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4690.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4380.0</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4170.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4270.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4630.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8229,7 +8569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AR$5</c:f>
+              <c:f>matrix!$AJ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8243,48 +8583,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AR$6:$AR$18</c:f>
+              <c:f>matrix!$AJ$6:$AJ$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1270.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1360.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1490.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1390.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1560.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1830.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2070.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2100.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2320.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2040.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1940.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1980.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2760.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8296,7 +8636,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AS$5</c:f>
+              <c:f>matrix!$AK$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8310,48 +8650,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AS$6:$AS$18</c:f>
+              <c:f>matrix!$AK$6:$AK$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1650.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1840.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1870.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2100.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2240.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2670.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2890.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2890.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2840.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2840.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2760.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2760.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3660.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8363,7 +8703,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AT$5</c:f>
+              <c:f>matrix!$AL$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8377,48 +8717,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AT$6:$AT$18</c:f>
+              <c:f>matrix!$AL$6:$AL$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1830.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2150.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2180.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2590.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3160.0</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3210.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3280.0</c:v>
+                  <c:v>320.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3450.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3740.0</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3580.0</c:v>
+                  <c:v>380.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3160.0</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3490.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4180.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8430,7 +8770,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AU$5</c:f>
+              <c:f>matrix!$AM$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8444,48 +8784,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AU$6:$AU$18</c:f>
+              <c:f>matrix!$AM$6:$AM$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1620.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1380.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1530.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1690.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2150.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2210.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2490.0</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2840.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2310.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2230.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1920.0</c:v>
+                  <c:v>390.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2660.0</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8497,7 +8837,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AV$5</c:f>
+              <c:f>matrix!$AN$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8511,48 +8851,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AV$6:$AV$18</c:f>
+              <c:f>matrix!$AN$6:$AN$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>380.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>730.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>710.0</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>920.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>1010.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1240.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
-                  <c:v>1580.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
-                  <c:v>1740.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
-                  <c:v>1370.0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>1270.0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1780.0</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,##0">
-                  <c:v>2520.0</c:v>
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>830.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,11 +8909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100988264"/>
-        <c:axId val="2100991368"/>
+        <c:axId val="2084910280"/>
+        <c:axId val="2084925928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100988264"/>
+        <c:axId val="2084910280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8582,7 +8922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100991368"/>
+        <c:crossAx val="2084925928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8590,18 +8930,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100991368"/>
+        <c:axId val="2084925928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100988264"/>
+        <c:crossAx val="2084910280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8648,7 +8988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AY$5</c:f>
+              <c:f>matrix!$AQ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8662,48 +9002,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AY$6:$AY$18</c:f>
+              <c:f>matrix!$AQ$6:$AQ$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2350.0</c:v>
+                  <c:v>2650.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2420.0</c:v>
+                  <c:v>2600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2350.0</c:v>
+                  <c:v>2790.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2390.0</c:v>
+                  <c:v>3080.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2490.0</c:v>
+                  <c:v>3480.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2610.0</c:v>
+                  <c:v>3860.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2660.0</c:v>
+                  <c:v>4160.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2660.0</c:v>
+                  <c:v>4530.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2570.0</c:v>
+                  <c:v>4690.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2650.0</c:v>
+                  <c:v>4380.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2720.0</c:v>
+                  <c:v>4170.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2720.0</c:v>
+                  <c:v>4270.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2610.0</c:v>
+                  <c:v>4630.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8715,7 +9055,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$AZ$5</c:f>
+              <c:f>matrix!$AR$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8729,48 +9069,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$AZ$6:$AZ$18</c:f>
+              <c:f>matrix!$AR$6:$AR$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1740.0</c:v>
+                  <c:v>1270.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1660.0</c:v>
+                  <c:v>1360.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1810.0</c:v>
+                  <c:v>1490.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1970.0</c:v>
+                  <c:v>1390.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2150.0</c:v>
+                  <c:v>1560.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2290.0</c:v>
+                  <c:v>1830.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2180.0</c:v>
+                  <c:v>2070.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2130.0</c:v>
+                  <c:v>2100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2320.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2260.0</c:v>
+                  <c:v>2040.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2080.0</c:v>
+                  <c:v>1940.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2100.0</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2060.0</c:v>
+                  <c:v>2760.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8782,7 +9122,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BA$5</c:f>
+              <c:f>matrix!$AS$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8796,48 +9136,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BA$6:$BA$18</c:f>
+              <c:f>matrix!$AS$6:$AS$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2600.0</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2850.0</c:v>
+                  <c:v>1840.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2810.0</c:v>
+                  <c:v>1870.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2740.0</c:v>
+                  <c:v>2100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2700.0</c:v>
+                  <c:v>2240.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2930.0</c:v>
+                  <c:v>2670.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2890.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2890.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2840.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2870.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2960.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2810.0</c:v>
+                  <c:v>2840.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2970.0</c:v>
+                  <c:v>2760.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2710.0</c:v>
+                  <c:v>2760.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2650.0</c:v>
+                  <c:v>3660.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8849,7 +9189,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BB$5</c:f>
+              <c:f>matrix!$AT$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8863,48 +9203,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BB$6:$BB$18</c:f>
+              <c:f>matrix!$AT$6:$AT$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2720.0</c:v>
+                  <c:v>1830.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2760.0</c:v>
+                  <c:v>2150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2670.0</c:v>
+                  <c:v>2180.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2780.0</c:v>
+                  <c:v>2590.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2990.0</c:v>
+                  <c:v>3160.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3070.0</c:v>
+                  <c:v>3210.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2980.0</c:v>
+                  <c:v>3280.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3140.0</c:v>
+                  <c:v>3450.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3440.0</c:v>
+                  <c:v>3740.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3320.0</c:v>
+                  <c:v>3580.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3370.0</c:v>
+                  <c:v>3160.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3240.0</c:v>
+                  <c:v>3490.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3600.0</c:v>
+                  <c:v>4180.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8916,7 +9256,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BC$5</c:f>
+              <c:f>matrix!$AU$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8930,48 +9270,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BC$6:$BC$18</c:f>
+              <c:f>matrix!$AU$6:$AU$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>860.0</c:v>
+                  <c:v>1620.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
-                  <c:v>1140.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>1140.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
-                  <c:v>1180.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1220.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
-                  <c:v>1520.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
-                  <c:v>1450.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
-                  <c:v>1590.0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>1390.0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
-                  <c:v>1210.0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1080.0</c:v>
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1550.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1690.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2150.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2210.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2490.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2840.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2310.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2230.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1920.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>980.0</c:v>
+                  <c:v>2660.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,7 +9323,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BD$5</c:f>
+              <c:f>matrix!$AV$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8997,48 +9337,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BD$6:$BD$18</c:f>
+              <c:f>matrix!$AV$6:$AV$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>560.0</c:v>
+                  <c:v>380.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>710.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
-                  <c:v>1170.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
-                  <c:v>1040.0</c:v>
+                <c:pt idx="3">
+                  <c:v>920.0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0">
-                  <c:v>1490.0</c:v>
+                  <c:v>1010.0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>1100.0</c:v>
+                  <c:v>1240.0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>1210.0</c:v>
+                  <c:v>1580.0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
-                  <c:v>1220.0</c:v>
+                  <c:v>1740.0</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>1340.0</c:v>
+                  <c:v>1370.0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>1710.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>1290.0</c:v>
+                  <c:v>1270.0</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1700.0</c:v>
+                  <c:v>1780.0</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
-                  <c:v>1810.0</c:v>
+                  <c:v>2520.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9055,11 +9395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101031784"/>
-        <c:axId val="2101034888"/>
+        <c:axId val="2084773512"/>
+        <c:axId val="2084770392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101031784"/>
+        <c:axId val="2084773512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101034888"/>
+        <c:crossAx val="2084770392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101034888"/>
+        <c:axId val="2084770392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9087,7 +9427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101031784"/>
+        <c:crossAx val="2084773512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9134,7 +9474,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BG$5</c:f>
+              <c:f>matrix!$AY$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9148,48 +9488,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BG$6:$BG$18</c:f>
+              <c:f>matrix!$AY$6:$AY$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4040.0</c:v>
+                  <c:v>2350.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4060.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3940.0</c:v>
+                  <c:v>2350.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3950.0</c:v>
+                  <c:v>2390.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4060.0</c:v>
+                  <c:v>2490.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4140.0</c:v>
+                  <c:v>2610.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4370.0</c:v>
+                  <c:v>2660.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4510.0</c:v>
+                  <c:v>2660.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4510.0</c:v>
+                  <c:v>2570.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4310.0</c:v>
+                  <c:v>2650.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4370.0</c:v>
+                  <c:v>2720.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4390.0</c:v>
+                  <c:v>2720.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4000.0</c:v>
+                  <c:v>2610.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9201,7 +9541,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BH$5</c:f>
+              <c:f>matrix!$AZ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9215,48 +9555,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BH$6:$BH$18</c:f>
+              <c:f>matrix!$AZ$6:$AZ$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3610.0</c:v>
+                  <c:v>1740.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3650.0</c:v>
+                  <c:v>1660.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3980.0</c:v>
+                  <c:v>1810.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3960.0</c:v>
+                  <c:v>1970.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4020.0</c:v>
+                  <c:v>2150.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4350.0</c:v>
+                  <c:v>2290.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4310.0</c:v>
+                  <c:v>2180.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4170.0</c:v>
+                  <c:v>2130.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4320.0</c:v>
+                  <c:v>2320.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4230.0</c:v>
+                  <c:v>2260.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4310.0</c:v>
+                  <c:v>2080.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3960.0</c:v>
+                  <c:v>2100.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3740.0</c:v>
+                  <c:v>2060.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9268,7 +9608,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BI$5</c:f>
+              <c:f>matrix!$BA$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9282,48 +9622,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BI$6:$BI$18</c:f>
+              <c:f>matrix!$BA$6:$BA$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4190.0</c:v>
+                  <c:v>2600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4260.0</c:v>
+                  <c:v>2850.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4190.0</c:v>
+                  <c:v>2810.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4240.0</c:v>
+                  <c:v>2740.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4750.0</c:v>
+                  <c:v>2700.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4990.0</c:v>
+                  <c:v>2930.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5150.0</c:v>
+                  <c:v>2840.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5030.0</c:v>
+                  <c:v>2870.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4950.0</c:v>
+                  <c:v>2960.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4770.0</c:v>
+                  <c:v>2810.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4660.0</c:v>
+                  <c:v>2970.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5050.0</c:v>
+                  <c:v>2710.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4710.0</c:v>
+                  <c:v>2650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9335,7 +9675,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BJ$5</c:f>
+              <c:f>matrix!$BB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9349,48 +9689,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BJ$6:$BJ$18</c:f>
+              <c:f>matrix!$BB$6:$BB$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3040.0</c:v>
+                  <c:v>2720.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3520.0</c:v>
+                  <c:v>2760.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200.0</c:v>
+                  <c:v>2670.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2780.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2990.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3070.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2980.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3140.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3440.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3690.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4020.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4230.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4060.0</c:v>
+                  <c:v>3320.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3690.0</c:v>
+                  <c:v>3370.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3240.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3600.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3490.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9402,7 +9742,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BK$5</c:f>
+              <c:f>matrix!$BC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9416,48 +9756,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BK$6:$BK$18</c:f>
+              <c:f>matrix!$BC$6:$BC$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2700.0</c:v>
+                  <c:v>860.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3020.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2880.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3060.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2790.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2830.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3040.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2690.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2740.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3230.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2640.0</c:v>
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1180.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1220.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1520.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>1590.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>1390.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1210.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1080.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2940.0</c:v>
+                  <c:v>980.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9469,7 +9809,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>matrix!$BL$5</c:f>
+              <c:f>matrix!$BD$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9483,48 +9823,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>matrix!$BL$6:$BL$18</c:f>
+              <c:f>matrix!$BD$6:$BD$18</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5290.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5490.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5810.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6170.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6410.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7060.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7140.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7270.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7770.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7230.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6740.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7390.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8130.0</c:v>
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1170.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>1040.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1490.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1210.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>1220.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>1340.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>1710.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1290.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>1810.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9541,11 +9881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101074136"/>
-        <c:axId val="2101077272"/>
+        <c:axId val="2084730056"/>
+        <c:axId val="2084726936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101074136"/>
+        <c:axId val="2084730056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9554,7 +9894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101077272"/>
+        <c:crossAx val="2084726936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9562,7 +9902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101077272"/>
+        <c:axId val="2084726936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9573,7 +9913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101074136"/>
+        <c:crossAx val="2084730056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10027,11 +10367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101116872"/>
-        <c:axId val="2101120008"/>
+        <c:axId val="2084644952"/>
+        <c:axId val="2084641800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101116872"/>
+        <c:axId val="2084644952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10040,7 +10380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101120008"/>
+        <c:crossAx val="2084641800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10048,7 +10388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101120008"/>
+        <c:axId val="2084641800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10059,7 +10399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101116872"/>
+        <c:crossAx val="2084644952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10081,20 +10421,58 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8574961" cy="5828217"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10295,36 +10673,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>65</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -10347,7 +10695,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10377,7 +10725,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10407,7 +10755,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10437,7 +10785,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10467,7 +10815,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10497,7 +10845,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10527,7 +10875,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10557,7 +10905,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10587,7 +10935,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10617,7 +10965,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10647,7 +10995,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10677,7 +11025,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11011,7 +11359,7 @@
   <dimension ref="A1:FE46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A44"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11062,705 +11410,705 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:161" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9"/>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="9"/>
-      <c r="CI1" s="9"/>
-      <c r="CJ1" s="9"/>
-      <c r="CK1" s="9"/>
-      <c r="CL1" s="9"/>
-      <c r="CM1" s="9"/>
-      <c r="CN1" s="9"/>
-      <c r="CO1" s="9"/>
-      <c r="CP1" s="9"/>
-      <c r="CQ1" s="9"/>
-      <c r="CR1" s="9"/>
-      <c r="CS1" s="9"/>
-      <c r="CT1" s="9"/>
-      <c r="CU1" s="9"/>
-      <c r="CV1" s="9"/>
-      <c r="CW1" s="9"/>
-      <c r="CX1" s="9"/>
-      <c r="CY1" s="9"/>
-      <c r="CZ1" s="9"/>
-      <c r="DA1" s="9"/>
-      <c r="DB1" s="9"/>
-      <c r="DC1" s="9"/>
-      <c r="DD1" s="9"/>
-      <c r="DE1" s="9"/>
-      <c r="DF1" s="9"/>
-      <c r="DG1" s="9"/>
-      <c r="DH1" s="9"/>
-      <c r="DI1" s="9"/>
-      <c r="DJ1" s="9"/>
-      <c r="DK1" s="9"/>
-      <c r="DL1" s="9"/>
-      <c r="DM1" s="9"/>
-      <c r="DN1" s="9"/>
-      <c r="DO1" s="9"/>
-      <c r="DP1" s="9"/>
-      <c r="DQ1" s="9"/>
-      <c r="DR1" s="9"/>
-      <c r="DS1" s="9"/>
-      <c r="DT1" s="9"/>
-      <c r="DU1" s="9"/>
-      <c r="DV1" s="9"/>
-      <c r="DW1" s="9"/>
-      <c r="DX1" s="9"/>
-      <c r="DY1" s="9"/>
-      <c r="DZ1" s="9"/>
-      <c r="EA1" s="9"/>
-      <c r="EB1" s="9"/>
-      <c r="EC1" s="9"/>
-      <c r="ED1" s="9"/>
-      <c r="EE1" s="9"/>
-      <c r="EF1" s="9"/>
-      <c r="EG1" s="9"/>
-      <c r="EH1" s="9"/>
-      <c r="EI1" s="9"/>
-      <c r="EJ1" s="9"/>
-      <c r="EK1" s="9"/>
-      <c r="EL1" s="9"/>
-      <c r="EM1" s="9"/>
-      <c r="EN1" s="9"/>
-      <c r="EO1" s="9"/>
-      <c r="EP1" s="9"/>
-      <c r="EQ1" s="9"/>
-      <c r="ER1" s="9"/>
-      <c r="ES1" s="9"/>
-      <c r="ET1" s="9"/>
-      <c r="EU1" s="9"/>
-      <c r="EV1" s="9"/>
-      <c r="EW1" s="9"/>
-      <c r="EX1" s="9"/>
-      <c r="EY1" s="9"/>
-      <c r="EZ1" s="9"/>
-      <c r="FA1" s="9"/>
-      <c r="FB1" s="9"/>
-      <c r="FC1" s="9"/>
-      <c r="FD1" s="9"/>
-      <c r="FE1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
+      <c r="CX1" s="10"/>
+      <c r="CY1" s="10"/>
+      <c r="CZ1" s="10"/>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
+      <c r="EA1" s="10"/>
+      <c r="EB1" s="10"/>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="10"/>
+      <c r="EG1" s="10"/>
+      <c r="EH1" s="10"/>
+      <c r="EI1" s="10"/>
+      <c r="EJ1" s="10"/>
+      <c r="EK1" s="10"/>
+      <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
     </row>
     <row r="2" spans="1:161" ht="15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="8"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8"/>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8"/>
-      <c r="DL2" s="8"/>
-      <c r="DM2" s="8"/>
-      <c r="DN2" s="8"/>
-      <c r="DO2" s="8"/>
-      <c r="DP2" s="8"/>
-      <c r="DQ2" s="8"/>
-      <c r="DR2" s="8"/>
-      <c r="DS2" s="8"/>
-      <c r="DT2" s="8"/>
-      <c r="DU2" s="8"/>
-      <c r="DV2" s="8"/>
-      <c r="DW2" s="8"/>
-      <c r="DX2" s="8"/>
-      <c r="DY2" s="8"/>
-      <c r="DZ2" s="8"/>
-      <c r="EA2" s="8"/>
-      <c r="EB2" s="8"/>
-      <c r="EC2" s="8"/>
-      <c r="ED2" s="8"/>
-      <c r="EE2" s="8"/>
-      <c r="EF2" s="8"/>
-      <c r="EG2" s="8"/>
-      <c r="EH2" s="8"/>
-      <c r="EI2" s="8"/>
-      <c r="EJ2" s="8"/>
-      <c r="EK2" s="8"/>
-      <c r="EL2" s="8"/>
-      <c r="EM2" s="8"/>
-      <c r="EN2" s="8"/>
-      <c r="EO2" s="8"/>
-      <c r="EP2" s="8"/>
-      <c r="EQ2" s="8"/>
-      <c r="ER2" s="8"/>
-      <c r="ES2" s="8"/>
-      <c r="ET2" s="8"/>
-      <c r="EU2" s="8"/>
-      <c r="EV2" s="8"/>
-      <c r="EW2" s="8"/>
-      <c r="EX2" s="8"/>
-      <c r="EY2" s="8"/>
-      <c r="EZ2" s="8"/>
-      <c r="FA2" s="8"/>
-      <c r="FB2" s="8"/>
-      <c r="FC2" s="8"/>
-      <c r="FD2" s="8"/>
-      <c r="FE2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12"/>
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12"/>
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12"/>
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12"/>
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12"/>
+      <c r="FE2" s="12"/>
     </row>
     <row r="3" spans="1:161" ht="15" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
-      <c r="CE3" s="8"/>
-      <c r="CF3" s="8"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="8"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
-      <c r="CK3" s="8"/>
-      <c r="CL3" s="8"/>
-      <c r="CM3" s="8"/>
-      <c r="CN3" s="8"/>
-      <c r="CO3" s="8"/>
-      <c r="CP3" s="8"/>
-      <c r="CQ3" s="8"/>
-      <c r="CR3" s="8"/>
-      <c r="CS3" s="8"/>
-      <c r="CT3" s="8"/>
-      <c r="CU3" s="8"/>
-      <c r="CV3" s="8"/>
-      <c r="CW3" s="8"/>
-      <c r="CX3" s="8"/>
-      <c r="CY3" s="8"/>
-      <c r="CZ3" s="8"/>
-      <c r="DA3" s="8"/>
-      <c r="DB3" s="8"/>
-      <c r="DC3" s="8"/>
-      <c r="DD3" s="8"/>
-      <c r="DE3" s="8"/>
-      <c r="DF3" s="8"/>
-      <c r="DG3" s="8"/>
-      <c r="DH3" s="8"/>
-      <c r="DI3" s="8"/>
-      <c r="DJ3" s="8"/>
-      <c r="DK3" s="8"/>
-      <c r="DL3" s="8"/>
-      <c r="DM3" s="8"/>
-      <c r="DN3" s="8"/>
-      <c r="DO3" s="8"/>
-      <c r="DP3" s="8"/>
-      <c r="DQ3" s="8"/>
-      <c r="DR3" s="8"/>
-      <c r="DS3" s="8"/>
-      <c r="DT3" s="8"/>
-      <c r="DU3" s="8"/>
-      <c r="DV3" s="8"/>
-      <c r="DW3" s="8"/>
-      <c r="DX3" s="8"/>
-      <c r="DY3" s="8"/>
-      <c r="DZ3" s="8"/>
-      <c r="EA3" s="8"/>
-      <c r="EB3" s="8"/>
-      <c r="EC3" s="8"/>
-      <c r="ED3" s="8"/>
-      <c r="EE3" s="8"/>
-      <c r="EF3" s="8"/>
-      <c r="EG3" s="8"/>
-      <c r="EH3" s="8"/>
-      <c r="EI3" s="8"/>
-      <c r="EJ3" s="8"/>
-      <c r="EK3" s="8"/>
-      <c r="EL3" s="8"/>
-      <c r="EM3" s="8"/>
-      <c r="EN3" s="8"/>
-      <c r="EO3" s="8"/>
-      <c r="EP3" s="8"/>
-      <c r="EQ3" s="8"/>
-      <c r="ER3" s="8"/>
-      <c r="ES3" s="8"/>
-      <c r="ET3" s="8"/>
-      <c r="EU3" s="8"/>
-      <c r="EV3" s="8"/>
-      <c r="EW3" s="8"/>
-      <c r="EX3" s="8"/>
-      <c r="EY3" s="8"/>
-      <c r="EZ3" s="8"/>
-      <c r="FA3" s="8"/>
-      <c r="FB3" s="8"/>
-      <c r="FC3" s="8"/>
-      <c r="FD3" s="8"/>
-      <c r="FE3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="12"/>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="12"/>
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="12"/>
+      <c r="CM3" s="12"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="12"/>
+      <c r="CP3" s="12"/>
+      <c r="CQ3" s="12"/>
+      <c r="CR3" s="12"/>
+      <c r="CS3" s="12"/>
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="12"/>
+      <c r="CV3" s="12"/>
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="12"/>
+      <c r="CY3" s="12"/>
+      <c r="CZ3" s="12"/>
+      <c r="DA3" s="12"/>
+      <c r="DB3" s="12"/>
+      <c r="DC3" s="12"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="12"/>
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="12"/>
+      <c r="DM3" s="12"/>
+      <c r="DN3" s="12"/>
+      <c r="DO3" s="12"/>
+      <c r="DP3" s="12"/>
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="12"/>
+      <c r="DS3" s="12"/>
+      <c r="DT3" s="12"/>
+      <c r="DU3" s="12"/>
+      <c r="DV3" s="12"/>
+      <c r="DW3" s="12"/>
+      <c r="DX3" s="12"/>
+      <c r="DY3" s="12"/>
+      <c r="DZ3" s="12"/>
+      <c r="EA3" s="12"/>
+      <c r="EB3" s="12"/>
+      <c r="EC3" s="12"/>
+      <c r="ED3" s="12"/>
+      <c r="EE3" s="12"/>
+      <c r="EF3" s="12"/>
+      <c r="EG3" s="12"/>
+      <c r="EH3" s="12"/>
+      <c r="EI3" s="12"/>
+      <c r="EJ3" s="12"/>
+      <c r="EK3" s="12"/>
+      <c r="EL3" s="12"/>
+      <c r="EM3" s="12"/>
+      <c r="EN3" s="12"/>
+      <c r="EO3" s="12"/>
+      <c r="EP3" s="12"/>
+      <c r="EQ3" s="12"/>
+      <c r="ER3" s="12"/>
+      <c r="ES3" s="12"/>
+      <c r="ET3" s="12"/>
+      <c r="EU3" s="12"/>
+      <c r="EV3" s="12"/>
+      <c r="EW3" s="12"/>
+      <c r="EX3" s="12"/>
+      <c r="EY3" s="12"/>
+      <c r="EZ3" s="12"/>
+      <c r="FA3" s="12"/>
+      <c r="FB3" s="12"/>
+      <c r="FC3" s="12"/>
+      <c r="FD3" s="12"/>
+      <c r="FE3" s="12"/>
     </row>
     <row r="4" spans="1:161" ht="15" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8" t="s">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8" t="s">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8" t="s">
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8" t="s">
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8" t="s">
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8" t="s">
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="8"/>
-      <c r="BV4" s="8" t="s">
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BW4" s="8"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="8"/>
-      <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
-      <c r="CD4" s="8" t="s">
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="CE4" s="8"/>
-      <c r="CF4" s="8"/>
-      <c r="CG4" s="8"/>
-      <c r="CH4" s="8"/>
-      <c r="CI4" s="8"/>
-      <c r="CJ4" s="8"/>
-      <c r="CK4" s="8"/>
-      <c r="CL4" s="8" t="s">
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="12"/>
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="12"/>
+      <c r="CL4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="CM4" s="8"/>
-      <c r="CN4" s="8"/>
-      <c r="CO4" s="8"/>
-      <c r="CP4" s="8"/>
-      <c r="CQ4" s="8"/>
-      <c r="CR4" s="8"/>
-      <c r="CS4" s="8"/>
-      <c r="CT4" s="8" t="s">
+      <c r="CM4" s="12"/>
+      <c r="CN4" s="12"/>
+      <c r="CO4" s="12"/>
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="12"/>
+      <c r="CT4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="CU4" s="8"/>
-      <c r="CV4" s="8"/>
-      <c r="CW4" s="8"/>
-      <c r="CX4" s="8"/>
-      <c r="CY4" s="8"/>
-      <c r="CZ4" s="8"/>
-      <c r="DA4" s="8"/>
-      <c r="DB4" s="8" t="s">
+      <c r="CU4" s="12"/>
+      <c r="CV4" s="12"/>
+      <c r="CW4" s="12"/>
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="12"/>
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="12"/>
+      <c r="DB4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="DC4" s="8"/>
-      <c r="DD4" s="8"/>
-      <c r="DE4" s="8"/>
-      <c r="DF4" s="8"/>
-      <c r="DG4" s="8"/>
-      <c r="DH4" s="8"/>
-      <c r="DI4" s="8"/>
-      <c r="DJ4" s="8" t="s">
+      <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
+      <c r="DE4" s="12"/>
+      <c r="DF4" s="12"/>
+      <c r="DG4" s="12"/>
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="12"/>
+      <c r="DJ4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="DK4" s="8"/>
-      <c r="DL4" s="8"/>
-      <c r="DM4" s="8"/>
-      <c r="DN4" s="8"/>
-      <c r="DO4" s="8"/>
-      <c r="DP4" s="8"/>
-      <c r="DQ4" s="8"/>
-      <c r="DR4" s="8" t="s">
+      <c r="DK4" s="12"/>
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="12"/>
+      <c r="DN4" s="12"/>
+      <c r="DO4" s="12"/>
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="12"/>
+      <c r="DR4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="DS4" s="8"/>
-      <c r="DT4" s="8"/>
-      <c r="DU4" s="8"/>
-      <c r="DV4" s="8"/>
-      <c r="DW4" s="8"/>
-      <c r="DX4" s="8"/>
-      <c r="DY4" s="8"/>
-      <c r="DZ4" s="8" t="s">
+      <c r="DS4" s="12"/>
+      <c r="DT4" s="12"/>
+      <c r="DU4" s="12"/>
+      <c r="DV4" s="12"/>
+      <c r="DW4" s="12"/>
+      <c r="DX4" s="12"/>
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="EA4" s="8"/>
-      <c r="EB4" s="8"/>
-      <c r="EC4" s="8"/>
-      <c r="ED4" s="8"/>
-      <c r="EE4" s="8"/>
-      <c r="EF4" s="8"/>
-      <c r="EG4" s="8"/>
-      <c r="EH4" s="8" t="s">
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12"/>
+      <c r="EF4" s="12"/>
+      <c r="EG4" s="12"/>
+      <c r="EH4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="EI4" s="8"/>
-      <c r="EJ4" s="8"/>
-      <c r="EK4" s="8"/>
-      <c r="EL4" s="8"/>
-      <c r="EM4" s="8"/>
-      <c r="EN4" s="8"/>
-      <c r="EO4" s="8"/>
-      <c r="EP4" s="8" t="s">
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="12"/>
+      <c r="EK4" s="12"/>
+      <c r="EL4" s="12"/>
+      <c r="EM4" s="12"/>
+      <c r="EN4" s="12"/>
+      <c r="EO4" s="12"/>
+      <c r="EP4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="EQ4" s="8"/>
-      <c r="ER4" s="8"/>
-      <c r="ES4" s="8"/>
-      <c r="ET4" s="8"/>
-      <c r="EU4" s="8"/>
-      <c r="EV4" s="8"/>
-      <c r="EW4" s="8"/>
-      <c r="EX4" s="8" t="s">
+      <c r="EQ4" s="12"/>
+      <c r="ER4" s="12"/>
+      <c r="ES4" s="12"/>
+      <c r="ET4" s="12"/>
+      <c r="EU4" s="12"/>
+      <c r="EV4" s="12"/>
+      <c r="EW4" s="12"/>
+      <c r="EX4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="EY4" s="8"/>
-      <c r="EZ4" s="8"/>
-      <c r="FA4" s="8"/>
-      <c r="FB4" s="8"/>
-      <c r="FC4" s="8"/>
-      <c r="FD4" s="8"/>
-      <c r="FE4" s="8"/>
+      <c r="EY4" s="12"/>
+      <c r="EZ4" s="12"/>
+      <c r="FA4" s="12"/>
+      <c r="FB4" s="12"/>
+      <c r="FC4" s="12"/>
+      <c r="FD4" s="12"/>
+      <c r="FE4" s="12"/>
     </row>
     <row r="5" spans="1:161">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -22760,333 +23108,343 @@
       <c r="FE44" s="6"/>
     </row>
     <row r="45" spans="1:161">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7"/>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-      <c r="AM45" s="7"/>
-      <c r="AN45" s="7"/>
-      <c r="AO45" s="7"/>
-      <c r="AP45" s="7"/>
-      <c r="AQ45" s="7"/>
-      <c r="AR45" s="7"/>
-      <c r="AS45" s="7"/>
-      <c r="AT45" s="7"/>
-      <c r="AU45" s="7"/>
-      <c r="AV45" s="7"/>
-      <c r="AW45" s="7"/>
-      <c r="AX45" s="7"/>
-      <c r="AY45" s="7"/>
-      <c r="AZ45" s="7"/>
-      <c r="BA45" s="7"/>
-      <c r="BB45" s="7"/>
-      <c r="BC45" s="7"/>
-      <c r="BD45" s="7"/>
-      <c r="BE45" s="7"/>
-      <c r="BF45" s="7"/>
-      <c r="BG45" s="7"/>
-      <c r="BH45" s="7"/>
-      <c r="BI45" s="7"/>
-      <c r="BJ45" s="7"/>
-      <c r="BK45" s="7"/>
-      <c r="BL45" s="7"/>
-      <c r="BM45" s="7"/>
-      <c r="BN45" s="7"/>
-      <c r="BO45" s="7"/>
-      <c r="BP45" s="7"/>
-      <c r="BQ45" s="7"/>
-      <c r="BR45" s="7"/>
-      <c r="BS45" s="7"/>
-      <c r="BT45" s="7"/>
-      <c r="BU45" s="7"/>
-      <c r="BV45" s="7"/>
-      <c r="BW45" s="7"/>
-      <c r="BX45" s="7"/>
-      <c r="BY45" s="7"/>
-      <c r="BZ45" s="7"/>
-      <c r="CA45" s="7"/>
-      <c r="CB45" s="7"/>
-      <c r="CC45" s="7"/>
-      <c r="CD45" s="7"/>
-      <c r="CE45" s="7"/>
-      <c r="CF45" s="7"/>
-      <c r="CG45" s="7"/>
-      <c r="CH45" s="7"/>
-      <c r="CI45" s="7"/>
-      <c r="CJ45" s="7"/>
-      <c r="CK45" s="7"/>
-      <c r="CL45" s="7"/>
-      <c r="CM45" s="7"/>
-      <c r="CN45" s="7"/>
-      <c r="CO45" s="7"/>
-      <c r="CP45" s="7"/>
-      <c r="CQ45" s="7"/>
-      <c r="CR45" s="7"/>
-      <c r="CS45" s="7"/>
-      <c r="CT45" s="7"/>
-      <c r="CU45" s="7"/>
-      <c r="CV45" s="7"/>
-      <c r="CW45" s="7"/>
-      <c r="CX45" s="7"/>
-      <c r="CY45" s="7"/>
-      <c r="CZ45" s="7"/>
-      <c r="DA45" s="7"/>
-      <c r="DB45" s="7"/>
-      <c r="DC45" s="7"/>
-      <c r="DD45" s="7"/>
-      <c r="DE45" s="7"/>
-      <c r="DF45" s="7"/>
-      <c r="DG45" s="7"/>
-      <c r="DH45" s="7"/>
-      <c r="DI45" s="7"/>
-      <c r="DJ45" s="7"/>
-      <c r="DK45" s="7"/>
-      <c r="DL45" s="7"/>
-      <c r="DM45" s="7"/>
-      <c r="DN45" s="7"/>
-      <c r="DO45" s="7"/>
-      <c r="DP45" s="7"/>
-      <c r="DQ45" s="7"/>
-      <c r="DR45" s="7"/>
-      <c r="DS45" s="7"/>
-      <c r="DT45" s="7"/>
-      <c r="DU45" s="7"/>
-      <c r="DV45" s="7"/>
-      <c r="DW45" s="7"/>
-      <c r="DX45" s="7"/>
-      <c r="DY45" s="7"/>
-      <c r="DZ45" s="7"/>
-      <c r="EA45" s="7"/>
-      <c r="EB45" s="7"/>
-      <c r="EC45" s="7"/>
-      <c r="ED45" s="7"/>
-      <c r="EE45" s="7"/>
-      <c r="EF45" s="7"/>
-      <c r="EG45" s="7"/>
-      <c r="EH45" s="7"/>
-      <c r="EI45" s="7"/>
-      <c r="EJ45" s="7"/>
-      <c r="EK45" s="7"/>
-      <c r="EL45" s="7"/>
-      <c r="EM45" s="7"/>
-      <c r="EN45" s="7"/>
-      <c r="EO45" s="7"/>
-      <c r="EP45" s="7"/>
-      <c r="EQ45" s="7"/>
-      <c r="ER45" s="7"/>
-      <c r="ES45" s="7"/>
-      <c r="ET45" s="7"/>
-      <c r="EU45" s="7"/>
-      <c r="EV45" s="7"/>
-      <c r="EW45" s="7"/>
-      <c r="EX45" s="7"/>
-      <c r="EY45" s="7"/>
-      <c r="EZ45" s="7"/>
-      <c r="FA45" s="7"/>
-      <c r="FB45" s="7"/>
-      <c r="FC45" s="7"/>
-      <c r="FD45" s="7"/>
-      <c r="FE45" s="7"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="13"/>
+      <c r="BD45" s="13"/>
+      <c r="BE45" s="13"/>
+      <c r="BF45" s="13"/>
+      <c r="BG45" s="13"/>
+      <c r="BH45" s="13"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="13"/>
+      <c r="BK45" s="13"/>
+      <c r="BL45" s="13"/>
+      <c r="BM45" s="13"/>
+      <c r="BN45" s="13"/>
+      <c r="BO45" s="13"/>
+      <c r="BP45" s="13"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="13"/>
+      <c r="BS45" s="13"/>
+      <c r="BT45" s="13"/>
+      <c r="BU45" s="13"/>
+      <c r="BV45" s="13"/>
+      <c r="BW45" s="13"/>
+      <c r="BX45" s="13"/>
+      <c r="BY45" s="13"/>
+      <c r="BZ45" s="13"/>
+      <c r="CA45" s="13"/>
+      <c r="CB45" s="13"/>
+      <c r="CC45" s="13"/>
+      <c r="CD45" s="13"/>
+      <c r="CE45" s="13"/>
+      <c r="CF45" s="13"/>
+      <c r="CG45" s="13"/>
+      <c r="CH45" s="13"/>
+      <c r="CI45" s="13"/>
+      <c r="CJ45" s="13"/>
+      <c r="CK45" s="13"/>
+      <c r="CL45" s="13"/>
+      <c r="CM45" s="13"/>
+      <c r="CN45" s="13"/>
+      <c r="CO45" s="13"/>
+      <c r="CP45" s="13"/>
+      <c r="CQ45" s="13"/>
+      <c r="CR45" s="13"/>
+      <c r="CS45" s="13"/>
+      <c r="CT45" s="13"/>
+      <c r="CU45" s="13"/>
+      <c r="CV45" s="13"/>
+      <c r="CW45" s="13"/>
+      <c r="CX45" s="13"/>
+      <c r="CY45" s="13"/>
+      <c r="CZ45" s="13"/>
+      <c r="DA45" s="13"/>
+      <c r="DB45" s="13"/>
+      <c r="DC45" s="13"/>
+      <c r="DD45" s="13"/>
+      <c r="DE45" s="13"/>
+      <c r="DF45" s="13"/>
+      <c r="DG45" s="13"/>
+      <c r="DH45" s="13"/>
+      <c r="DI45" s="13"/>
+      <c r="DJ45" s="13"/>
+      <c r="DK45" s="13"/>
+      <c r="DL45" s="13"/>
+      <c r="DM45" s="13"/>
+      <c r="DN45" s="13"/>
+      <c r="DO45" s="13"/>
+      <c r="DP45" s="13"/>
+      <c r="DQ45" s="13"/>
+      <c r="DR45" s="13"/>
+      <c r="DS45" s="13"/>
+      <c r="DT45" s="13"/>
+      <c r="DU45" s="13"/>
+      <c r="DV45" s="13"/>
+      <c r="DW45" s="13"/>
+      <c r="DX45" s="13"/>
+      <c r="DY45" s="13"/>
+      <c r="DZ45" s="13"/>
+      <c r="EA45" s="13"/>
+      <c r="EB45" s="13"/>
+      <c r="EC45" s="13"/>
+      <c r="ED45" s="13"/>
+      <c r="EE45" s="13"/>
+      <c r="EF45" s="13"/>
+      <c r="EG45" s="13"/>
+      <c r="EH45" s="13"/>
+      <c r="EI45" s="13"/>
+      <c r="EJ45" s="13"/>
+      <c r="EK45" s="13"/>
+      <c r="EL45" s="13"/>
+      <c r="EM45" s="13"/>
+      <c r="EN45" s="13"/>
+      <c r="EO45" s="13"/>
+      <c r="EP45" s="13"/>
+      <c r="EQ45" s="13"/>
+      <c r="ER45" s="13"/>
+      <c r="ES45" s="13"/>
+      <c r="ET45" s="13"/>
+      <c r="EU45" s="13"/>
+      <c r="EV45" s="13"/>
+      <c r="EW45" s="13"/>
+      <c r="EX45" s="13"/>
+      <c r="EY45" s="13"/>
+      <c r="EZ45" s="13"/>
+      <c r="FA45" s="13"/>
+      <c r="FB45" s="13"/>
+      <c r="FC45" s="13"/>
+      <c r="FD45" s="13"/>
+      <c r="FE45" s="13"/>
     </row>
     <row r="46" spans="1:161">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
-      <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
-      <c r="AO46" s="7"/>
-      <c r="AP46" s="7"/>
-      <c r="AQ46" s="7"/>
-      <c r="AR46" s="7"/>
-      <c r="AS46" s="7"/>
-      <c r="AT46" s="7"/>
-      <c r="AU46" s="7"/>
-      <c r="AV46" s="7"/>
-      <c r="AW46" s="7"/>
-      <c r="AX46" s="7"/>
-      <c r="AY46" s="7"/>
-      <c r="AZ46" s="7"/>
-      <c r="BA46" s="7"/>
-      <c r="BB46" s="7"/>
-      <c r="BC46" s="7"/>
-      <c r="BD46" s="7"/>
-      <c r="BE46" s="7"/>
-      <c r="BF46" s="7"/>
-      <c r="BG46" s="7"/>
-      <c r="BH46" s="7"/>
-      <c r="BI46" s="7"/>
-      <c r="BJ46" s="7"/>
-      <c r="BK46" s="7"/>
-      <c r="BL46" s="7"/>
-      <c r="BM46" s="7"/>
-      <c r="BN46" s="7"/>
-      <c r="BO46" s="7"/>
-      <c r="BP46" s="7"/>
-      <c r="BQ46" s="7"/>
-      <c r="BR46" s="7"/>
-      <c r="BS46" s="7"/>
-      <c r="BT46" s="7"/>
-      <c r="BU46" s="7"/>
-      <c r="BV46" s="7"/>
-      <c r="BW46" s="7"/>
-      <c r="BX46" s="7"/>
-      <c r="BY46" s="7"/>
-      <c r="BZ46" s="7"/>
-      <c r="CA46" s="7"/>
-      <c r="CB46" s="7"/>
-      <c r="CC46" s="7"/>
-      <c r="CD46" s="7"/>
-      <c r="CE46" s="7"/>
-      <c r="CF46" s="7"/>
-      <c r="CG46" s="7"/>
-      <c r="CH46" s="7"/>
-      <c r="CI46" s="7"/>
-      <c r="CJ46" s="7"/>
-      <c r="CK46" s="7"/>
-      <c r="CL46" s="7"/>
-      <c r="CM46" s="7"/>
-      <c r="CN46" s="7"/>
-      <c r="CO46" s="7"/>
-      <c r="CP46" s="7"/>
-      <c r="CQ46" s="7"/>
-      <c r="CR46" s="7"/>
-      <c r="CS46" s="7"/>
-      <c r="CT46" s="7"/>
-      <c r="CU46" s="7"/>
-      <c r="CV46" s="7"/>
-      <c r="CW46" s="7"/>
-      <c r="CX46" s="7"/>
-      <c r="CY46" s="7"/>
-      <c r="CZ46" s="7"/>
-      <c r="DA46" s="7"/>
-      <c r="DB46" s="7"/>
-      <c r="DC46" s="7"/>
-      <c r="DD46" s="7"/>
-      <c r="DE46" s="7"/>
-      <c r="DF46" s="7"/>
-      <c r="DG46" s="7"/>
-      <c r="DH46" s="7"/>
-      <c r="DI46" s="7"/>
-      <c r="DJ46" s="7"/>
-      <c r="DK46" s="7"/>
-      <c r="DL46" s="7"/>
-      <c r="DM46" s="7"/>
-      <c r="DN46" s="7"/>
-      <c r="DO46" s="7"/>
-      <c r="DP46" s="7"/>
-      <c r="DQ46" s="7"/>
-      <c r="DR46" s="7"/>
-      <c r="DS46" s="7"/>
-      <c r="DT46" s="7"/>
-      <c r="DU46" s="7"/>
-      <c r="DV46" s="7"/>
-      <c r="DW46" s="7"/>
-      <c r="DX46" s="7"/>
-      <c r="DY46" s="7"/>
-      <c r="DZ46" s="7"/>
-      <c r="EA46" s="7"/>
-      <c r="EB46" s="7"/>
-      <c r="EC46" s="7"/>
-      <c r="ED46" s="7"/>
-      <c r="EE46" s="7"/>
-      <c r="EF46" s="7"/>
-      <c r="EG46" s="7"/>
-      <c r="EH46" s="7"/>
-      <c r="EI46" s="7"/>
-      <c r="EJ46" s="7"/>
-      <c r="EK46" s="7"/>
-      <c r="EL46" s="7"/>
-      <c r="EM46" s="7"/>
-      <c r="EN46" s="7"/>
-      <c r="EO46" s="7"/>
-      <c r="EP46" s="7"/>
-      <c r="EQ46" s="7"/>
-      <c r="ER46" s="7"/>
-      <c r="ES46" s="7"/>
-      <c r="ET46" s="7"/>
-      <c r="EU46" s="7"/>
-      <c r="EV46" s="7"/>
-      <c r="EW46" s="7"/>
-      <c r="EX46" s="7"/>
-      <c r="EY46" s="7"/>
-      <c r="EZ46" s="7"/>
-      <c r="FA46" s="7"/>
-      <c r="FB46" s="7"/>
-      <c r="FC46" s="7"/>
-      <c r="FD46" s="7"/>
-      <c r="FE46" s="7"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="13"/>
+      <c r="BE46" s="13"/>
+      <c r="BF46" s="13"/>
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="13"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="13"/>
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="13"/>
+      <c r="BO46" s="13"/>
+      <c r="BP46" s="13"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="13"/>
+      <c r="BS46" s="13"/>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="13"/>
+      <c r="BV46" s="13"/>
+      <c r="BW46" s="13"/>
+      <c r="BX46" s="13"/>
+      <c r="BY46" s="13"/>
+      <c r="BZ46" s="13"/>
+      <c r="CA46" s="13"/>
+      <c r="CB46" s="13"/>
+      <c r="CC46" s="13"/>
+      <c r="CD46" s="13"/>
+      <c r="CE46" s="13"/>
+      <c r="CF46" s="13"/>
+      <c r="CG46" s="13"/>
+      <c r="CH46" s="13"/>
+      <c r="CI46" s="13"/>
+      <c r="CJ46" s="13"/>
+      <c r="CK46" s="13"/>
+      <c r="CL46" s="13"/>
+      <c r="CM46" s="13"/>
+      <c r="CN46" s="13"/>
+      <c r="CO46" s="13"/>
+      <c r="CP46" s="13"/>
+      <c r="CQ46" s="13"/>
+      <c r="CR46" s="13"/>
+      <c r="CS46" s="13"/>
+      <c r="CT46" s="13"/>
+      <c r="CU46" s="13"/>
+      <c r="CV46" s="13"/>
+      <c r="CW46" s="13"/>
+      <c r="CX46" s="13"/>
+      <c r="CY46" s="13"/>
+      <c r="CZ46" s="13"/>
+      <c r="DA46" s="13"/>
+      <c r="DB46" s="13"/>
+      <c r="DC46" s="13"/>
+      <c r="DD46" s="13"/>
+      <c r="DE46" s="13"/>
+      <c r="DF46" s="13"/>
+      <c r="DG46" s="13"/>
+      <c r="DH46" s="13"/>
+      <c r="DI46" s="13"/>
+      <c r="DJ46" s="13"/>
+      <c r="DK46" s="13"/>
+      <c r="DL46" s="13"/>
+      <c r="DM46" s="13"/>
+      <c r="DN46" s="13"/>
+      <c r="DO46" s="13"/>
+      <c r="DP46" s="13"/>
+      <c r="DQ46" s="13"/>
+      <c r="DR46" s="13"/>
+      <c r="DS46" s="13"/>
+      <c r="DT46" s="13"/>
+      <c r="DU46" s="13"/>
+      <c r="DV46" s="13"/>
+      <c r="DW46" s="13"/>
+      <c r="DX46" s="13"/>
+      <c r="DY46" s="13"/>
+      <c r="DZ46" s="13"/>
+      <c r="EA46" s="13"/>
+      <c r="EB46" s="13"/>
+      <c r="EC46" s="13"/>
+      <c r="ED46" s="13"/>
+      <c r="EE46" s="13"/>
+      <c r="EF46" s="13"/>
+      <c r="EG46" s="13"/>
+      <c r="EH46" s="13"/>
+      <c r="EI46" s="13"/>
+      <c r="EJ46" s="13"/>
+      <c r="EK46" s="13"/>
+      <c r="EL46" s="13"/>
+      <c r="EM46" s="13"/>
+      <c r="EN46" s="13"/>
+      <c r="EO46" s="13"/>
+      <c r="EP46" s="13"/>
+      <c r="EQ46" s="13"/>
+      <c r="ER46" s="13"/>
+      <c r="ES46" s="13"/>
+      <c r="ET46" s="13"/>
+      <c r="EU46" s="13"/>
+      <c r="EV46" s="13"/>
+      <c r="EW46" s="13"/>
+      <c r="EX46" s="13"/>
+      <c r="EY46" s="13"/>
+      <c r="EZ46" s="13"/>
+      <c r="FA46" s="13"/>
+      <c r="FB46" s="13"/>
+      <c r="FC46" s="13"/>
+      <c r="FD46" s="13"/>
+      <c r="FE46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="A46:FE46"/>
+    <mergeCell ref="A45:FE45"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
     <mergeCell ref="A1:FE1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:FE2"/>
@@ -23103,16 +23461,6 @@
     <mergeCell ref="DR4:DY4"/>
     <mergeCell ref="DZ4:EG4"/>
     <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="A46:FE46"/>
-    <mergeCell ref="A45:FE45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -23146,120 +23494,120 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="12"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
     </row>
